--- a/target/classes/input/inputExcel.xlsx
+++ b/target/classes/input/inputExcel.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\2ºDAM\TFG\Proyects\META-2\src\main\resources\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E4990C-5840-41CC-BD0A-2038F63A566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677BE6C1-EB3F-4A4A-93D6-1C3B330EFD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="1650" windowWidth="21600" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AZUREAD" sheetId="1" r:id="rId1"/>
+    <sheet name="AD" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="VARIABLE_COLOR">Sheet1!$C:$C</definedName>
-    <definedName name="VARIABLE_NAME">Sheet1!$A:$A</definedName>
-    <definedName name="VARIABLE_TYPE">Sheet1!$B:$B</definedName>
+    <definedName name="VARIABLE_COLOR">AZUREAD!$C:$C</definedName>
+    <definedName name="VARIABLE_NAME">AZUREAD!$A:$A</definedName>
+    <definedName name="VARIABLE_TYPE">AZUREAD!$B:$B</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>SCOPE</t>
   </si>
@@ -44,10 +45,13 @@
     <t>TYPE</t>
   </si>
   <si>
-    <t>LOGIPLEX</t>
-  </si>
-  <si>
     <t>Celonis</t>
+  </si>
+  <si>
+    <t>AzureAD</t>
+  </si>
+  <si>
+    <t>AD</t>
   </si>
 </sst>
 </file>
@@ -98,7 +102,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -116,12 +123,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E426E149-A91F-4D02-9CDC-FDC46EFB4B8A}" name="Tabla1" displayName="Tabla1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E426E149-A91F-4D02-9CDC-FDC46EFB4B8A}" name="Tabla1" displayName="Tabla1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:C4" xr:uid="{E426E149-A91F-4D02-9CDC-FDC46EFB4B8A}"/>
   <tableColumns count="3">
     <tableColumn id="4" xr3:uid="{F33831BB-F014-4E30-A6B9-B1BEDAFB4D48}" name="TYPE"/>
     <tableColumn id="1" xr3:uid="{3D6CC73F-9521-4077-82D1-ADB25080F9B6}" name="SCOPE"/>
     <tableColumn id="2" xr3:uid="{8F46D3F0-FAD2-498C-A186-EEAD24937312}" name="APP NAME"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1CBF6763-EF48-4B68-A605-DFF4D0B4E90B}" name="Tabla13" displayName="Tabla13" ref="A1:C4" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C4" xr:uid="{1CBF6763-EF48-4B68-A605-DFF4D0B4E90B}"/>
+  <tableColumns count="3">
+    <tableColumn id="4" xr3:uid="{7812491C-8F81-43E6-8AD3-43335B3F26FB}" name="TYPE"/>
+    <tableColumn id="1" xr3:uid="{864DF48C-78C8-4FCF-B67F-7EE83483625E}" name="SCOPE"/>
+    <tableColumn id="2" xr3:uid="{FBD718E4-A5EC-4A0E-814B-6472ACF46124}" name="APP NAME"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -392,13 +411,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -414,13 +434,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -431,4 +451,52 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC30E3F-C42A-4365-96A6-D5220C04BA3D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/target/classes/input/inputExcel.xlsx
+++ b/target/classes/input/inputExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\2ºDAM\TFG\Proyects\META-2\src\main\resources\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677BE6C1-EB3F-4A4A-93D6-1C3B330EFD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545CFEA7-9486-4143-AFA1-B322AF9980B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AZUREAD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>SCOPE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>AD</t>
+  </si>
+  <si>
+    <t>O365</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,6 +446,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -455,10 +469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC30E3F-C42A-4365-96A6-D5220C04BA3D}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,11 +502,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/target/classes/input/inputExcel.xlsx
+++ b/target/classes/input/inputExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\2ºDAM\TFG\Proyects\META-2\src\main\resources\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545CFEA7-9486-4143-AFA1-B322AF9980B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9078E2E-96B2-4755-A512-8B62E4CB6540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AZUREAD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>SCOPE</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>O365</t>
+  </si>
+  <si>
+    <t>VPNs</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +475,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/input/inputExcel.xlsx
+++ b/target/classes/input/inputExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\2ºDAM\TFG\Proyects\META-2\src\main\resources\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9078E2E-96B2-4755-A512-8B62E4CB6540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AADB4CC-3185-4E8C-A13B-87D7AB800F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AZUREAD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>SCOPE</t>
   </si>
@@ -39,25 +39,7 @@
     <t>APP NAME</t>
   </si>
   <si>
-    <t>SGTO</t>
-  </si>
-  <si>
     <t>TYPE</t>
-  </si>
-  <si>
-    <t>Celonis</t>
-  </si>
-  <si>
-    <t>AzureAD</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>O365</t>
-  </si>
-  <si>
-    <t>VPNs</t>
   </si>
 </sst>
 </file>
@@ -415,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,35 +411,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -472,10 +432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC30E3F-C42A-4365-96A6-D5220C04BA3D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,24 +445,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/input/inputExcel.xlsx
+++ b/target/classes/input/inputExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Documents\2ºDAM\TFG\Proyects\META-2\src\main\resources\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AADB4CC-3185-4E8C-A13B-87D7AB800F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98873E10-ACB6-4607-B4A9-0698A470C786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>SCOPE</t>
   </si>
@@ -39,7 +39,46 @@
     <t>APP NAME</t>
   </si>
   <si>
+    <t>SGTO</t>
+  </si>
+  <si>
     <t>TYPE</t>
+  </si>
+  <si>
+    <t>Celonis</t>
+  </si>
+  <si>
+    <t>AzureAD</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>O365</t>
+  </si>
+  <si>
+    <t>VPNs</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>CLIENT ID</t>
+  </si>
+  <si>
+    <t>CLIENT SECRET</t>
+  </si>
+  <si>
+    <t>Irisrusk</t>
+  </si>
+  <si>
+    <t>CLIENTID</t>
+  </si>
+  <si>
+    <t>CLIENTSECRET</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -111,12 +150,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E426E149-A91F-4D02-9CDC-FDC46EFB4B8A}" name="Tabla1" displayName="Tabla1" ref="A1:C4" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:C4" xr:uid="{E426E149-A91F-4D02-9CDC-FDC46EFB4B8A}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E426E149-A91F-4D02-9CDC-FDC46EFB4B8A}" name="Tabla1" displayName="Tabla1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F4" xr:uid="{E426E149-A91F-4D02-9CDC-FDC46EFB4B8A}"/>
+  <tableColumns count="6">
     <tableColumn id="4" xr3:uid="{F33831BB-F014-4E30-A6B9-B1BEDAFB4D48}" name="TYPE"/>
     <tableColumn id="1" xr3:uid="{3D6CC73F-9521-4077-82D1-ADB25080F9B6}" name="SCOPE"/>
     <tableColumn id="2" xr3:uid="{8F46D3F0-FAD2-498C-A186-EEAD24937312}" name="APP NAME"/>
+    <tableColumn id="3" xr3:uid="{4C933D40-BC16-4340-B47B-4C15AC703448}" name="URL"/>
+    <tableColumn id="5" xr3:uid="{54907F5D-C55A-462F-8F86-4FD1AB4C0617}" name="CLIENT ID"/>
+    <tableColumn id="6" xr3:uid="{5A4BEEB0-6964-4E15-9EC9-E35467B12441}" name="CLIENT SECRET"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -397,27 +439,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="6" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -432,10 +543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC30E3F-C42A-4365-96A6-D5220C04BA3D}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,13 +556,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
